--- a/chillcoma exp.xlsx
+++ b/chillcoma exp.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clairecampion/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clairecampion/Documents/GitHub/individualproject_datawrangle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33BEFEDD-92B6-6345-8AE4-81068DA733A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9695164-6D52-124B-A4BF-D6E1C6A86D10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="1460" windowWidth="27640" windowHeight="15300" xr2:uid="{413E1FD6-5D76-F04A-826E-C68CE770C81E}"/>
+    <workbookView xWindow="1160" yWindow="1180" windowWidth="27640" windowHeight="15300" xr2:uid="{413E1FD6-5D76-F04A-826E-C68CE770C81E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="21">
   <si>
     <t>beeid</t>
   </si>
@@ -82,9 +82,6 @@
     <t>Control</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>Chillcoma</t>
   </si>
   <si>
@@ -101,9 +98,6 @@
   </si>
   <si>
     <t>male</t>
-  </si>
-  <si>
-    <t>control</t>
   </si>
 </sst>
 </file>
@@ -458,8 +452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E002C768-40AE-A74C-AE93-FD7693BB820F}">
   <dimension ref="A1:M103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -507,7 +501,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -518,8 +512,8 @@
       <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
-        <v>15</v>
+      <c r="E2">
+        <v>0</v>
       </c>
       <c r="F2">
         <v>1236</v>
@@ -537,18 +531,18 @@
         <v>44671</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L2" t="s">
         <v>13</v>
       </c>
       <c r="M2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -559,8 +553,8 @@
       <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
-        <v>15</v>
+      <c r="E3">
+        <v>0</v>
       </c>
       <c r="F3">
         <v>882</v>
@@ -578,18 +572,18 @@
         <v>44671</v>
       </c>
       <c r="K3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L3" t="s">
         <v>13</v>
       </c>
       <c r="M3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -600,8 +594,8 @@
       <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
-        <v>15</v>
+      <c r="E4">
+        <v>0</v>
       </c>
       <c r="F4">
         <v>624</v>
@@ -619,18 +613,18 @@
         <v>44671</v>
       </c>
       <c r="K4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L4" t="s">
         <v>13</v>
       </c>
       <c r="M4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -639,7 +633,7 @@
         <v>9.8900000000000002E-2</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>48</v>
@@ -660,18 +654,18 @@
         <v>44671</v>
       </c>
       <c r="K5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L5" t="s">
         <v>13</v>
       </c>
       <c r="M5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -680,7 +674,7 @@
         <v>9.8900000000000002E-2</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>48</v>
@@ -701,18 +695,18 @@
         <v>44671</v>
       </c>
       <c r="K6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L6" t="s">
         <v>13</v>
       </c>
       <c r="M6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -721,7 +715,7 @@
         <v>9.8900000000000002E-2</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>48</v>
@@ -742,18 +736,18 @@
         <v>44671</v>
       </c>
       <c r="K7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L7" t="s">
         <v>13</v>
       </c>
       <c r="M7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -762,7 +756,7 @@
         <v>0.12330000000000001</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>48</v>
@@ -783,18 +777,18 @@
         <v>44671</v>
       </c>
       <c r="K8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L8" t="s">
         <v>13</v>
       </c>
       <c r="M8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -803,7 +797,7 @@
         <v>0.12330000000000001</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>48</v>
@@ -824,18 +818,18 @@
         <v>44671</v>
       </c>
       <c r="K9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L9" t="s">
         <v>13</v>
       </c>
       <c r="M9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -844,7 +838,7 @@
         <v>0.12330000000000001</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>48</v>
@@ -865,18 +859,18 @@
         <v>44671</v>
       </c>
       <c r="K10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L10" t="s">
         <v>13</v>
       </c>
       <c r="M10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -885,7 +879,7 @@
         <v>0.154</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>48</v>
@@ -906,18 +900,18 @@
         <v>44671</v>
       </c>
       <c r="K11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L11" t="s">
         <v>13</v>
       </c>
       <c r="M11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -926,7 +920,7 @@
         <v>0.154</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12">
         <v>48</v>
@@ -947,18 +941,18 @@
         <v>44671</v>
       </c>
       <c r="K12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L12" t="s">
         <v>13</v>
       </c>
       <c r="M12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -967,7 +961,7 @@
         <v>0.154</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13">
         <v>48</v>
@@ -988,18 +982,18 @@
         <v>44671</v>
       </c>
       <c r="K13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L13" t="s">
         <v>13</v>
       </c>
       <c r="M13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1008,7 +1002,7 @@
         <v>0.18090000000000001</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <v>48</v>
@@ -1029,18 +1023,18 @@
         <v>44671</v>
       </c>
       <c r="K14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L14" t="s">
         <v>13</v>
       </c>
       <c r="M14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -1049,7 +1043,7 @@
         <v>0.18090000000000001</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>48</v>
@@ -1070,18 +1064,18 @@
         <v>44671</v>
       </c>
       <c r="K15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L15" t="s">
         <v>13</v>
       </c>
       <c r="M15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -1090,7 +1084,7 @@
         <v>0.18090000000000001</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <v>48</v>
@@ -1111,18 +1105,18 @@
         <v>44671</v>
       </c>
       <c r="K16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L16" t="s">
         <v>13</v>
       </c>
       <c r="M16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1133,8 +1127,8 @@
       <c r="D17" t="s">
         <v>14</v>
       </c>
-      <c r="E17" t="s">
-        <v>15</v>
+      <c r="E17">
+        <v>0</v>
       </c>
       <c r="F17">
         <v>329</v>
@@ -1152,18 +1146,18 @@
         <v>44671</v>
       </c>
       <c r="K17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L17" t="s">
         <v>13</v>
       </c>
       <c r="M17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -1174,8 +1168,8 @@
       <c r="D18" t="s">
         <v>14</v>
       </c>
-      <c r="E18" t="s">
-        <v>15</v>
+      <c r="E18">
+        <v>0</v>
       </c>
       <c r="F18">
         <v>208</v>
@@ -1193,18 +1187,18 @@
         <v>44671</v>
       </c>
       <c r="K18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L18" t="s">
         <v>13</v>
       </c>
       <c r="M18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -1215,8 +1209,8 @@
       <c r="D19" t="s">
         <v>14</v>
       </c>
-      <c r="E19" t="s">
-        <v>15</v>
+      <c r="E19">
+        <v>0</v>
       </c>
       <c r="F19">
         <v>426</v>
@@ -1234,18 +1228,18 @@
         <v>44671</v>
       </c>
       <c r="K19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L19" t="s">
         <v>13</v>
       </c>
       <c r="M19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -1254,7 +1248,7 @@
         <v>8.0500000000000002E-2</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E20">
         <v>48</v>
@@ -1275,18 +1269,18 @@
         <v>44671</v>
       </c>
       <c r="K20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L20" t="s">
         <v>13</v>
       </c>
       <c r="M20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -1295,7 +1289,7 @@
         <v>8.0500000000000002E-2</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E21">
         <v>48</v>
@@ -1316,18 +1310,18 @@
         <v>44671</v>
       </c>
       <c r="K21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L21" t="s">
         <v>13</v>
       </c>
       <c r="M21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -1336,7 +1330,7 @@
         <v>8.0500000000000002E-2</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E22">
         <v>48</v>
@@ -1357,18 +1351,18 @@
         <v>44671</v>
       </c>
       <c r="K22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L22" t="s">
         <v>13</v>
       </c>
       <c r="M22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -1379,8 +1373,8 @@
       <c r="D23" t="s">
         <v>14</v>
       </c>
-      <c r="E23" t="s">
-        <v>15</v>
+      <c r="E23">
+        <v>0</v>
       </c>
       <c r="F23">
         <v>1013</v>
@@ -1398,18 +1392,18 @@
         <v>44671</v>
       </c>
       <c r="K23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L23" t="s">
         <v>13</v>
       </c>
       <c r="M23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -1420,8 +1414,8 @@
       <c r="D24" t="s">
         <v>14</v>
       </c>
-      <c r="E24" t="s">
-        <v>15</v>
+      <c r="E24">
+        <v>0</v>
       </c>
       <c r="F24">
         <v>1015</v>
@@ -1439,18 +1433,18 @@
         <v>44671</v>
       </c>
       <c r="K24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L24" t="s">
         <v>13</v>
       </c>
       <c r="M24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -1461,8 +1455,8 @@
       <c r="D25" t="s">
         <v>14</v>
       </c>
-      <c r="E25" t="s">
-        <v>15</v>
+      <c r="E25">
+        <v>0</v>
       </c>
       <c r="F25">
         <v>1170</v>
@@ -1480,18 +1474,18 @@
         <v>44671</v>
       </c>
       <c r="K25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L25" t="s">
         <v>13</v>
       </c>
       <c r="M25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -1500,7 +1494,7 @@
         <v>0.1042</v>
       </c>
       <c r="D26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E26">
         <v>48</v>
@@ -1521,18 +1515,18 @@
         <v>44671</v>
       </c>
       <c r="K26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L26" t="s">
         <v>13</v>
       </c>
       <c r="M26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -1541,7 +1535,7 @@
         <v>0.1042</v>
       </c>
       <c r="D27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E27">
         <v>48</v>
@@ -1562,18 +1556,18 @@
         <v>44671</v>
       </c>
       <c r="K27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L27" t="s">
         <v>13</v>
       </c>
       <c r="M27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -1582,7 +1576,7 @@
         <v>0.1042</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E28">
         <v>48</v>
@@ -1603,18 +1597,18 @@
         <v>44671</v>
       </c>
       <c r="K28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L28" t="s">
         <v>13</v>
       </c>
       <c r="M28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -1625,8 +1619,8 @@
       <c r="D29" t="s">
         <v>14</v>
       </c>
-      <c r="E29" t="s">
-        <v>15</v>
+      <c r="E29">
+        <v>0</v>
       </c>
       <c r="F29">
         <v>1661</v>
@@ -1644,18 +1638,18 @@
         <v>44671</v>
       </c>
       <c r="K29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L29" t="s">
         <v>13</v>
       </c>
       <c r="M29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -1666,8 +1660,8 @@
       <c r="D30" t="s">
         <v>14</v>
       </c>
-      <c r="E30" t="s">
-        <v>15</v>
+      <c r="E30">
+        <v>0</v>
       </c>
       <c r="F30">
         <v>1842</v>
@@ -1685,18 +1679,18 @@
         <v>44671</v>
       </c>
       <c r="K30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L30" t="s">
         <v>13</v>
       </c>
       <c r="M30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B31">
         <v>3</v>
@@ -1707,8 +1701,8 @@
       <c r="D31" t="s">
         <v>14</v>
       </c>
-      <c r="E31" t="s">
-        <v>15</v>
+      <c r="E31">
+        <v>0</v>
       </c>
       <c r="F31">
         <v>1815</v>
@@ -1726,18 +1720,18 @@
         <v>44671</v>
       </c>
       <c r="K31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L31" t="s">
         <v>13</v>
       </c>
       <c r="M31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -1746,7 +1740,7 @@
         <v>0.1046</v>
       </c>
       <c r="D32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E32">
         <v>48</v>
@@ -1767,18 +1761,18 @@
         <v>44671</v>
       </c>
       <c r="K32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L32" t="s">
         <v>13</v>
       </c>
       <c r="M32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -1787,7 +1781,7 @@
         <v>0.1046</v>
       </c>
       <c r="D33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E33">
         <v>48</v>
@@ -1808,18 +1802,18 @@
         <v>44671</v>
       </c>
       <c r="K33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L33" t="s">
         <v>13</v>
       </c>
       <c r="M33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -1828,7 +1822,7 @@
         <v>0.1046</v>
       </c>
       <c r="D34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E34">
         <v>48</v>
@@ -1849,18 +1843,18 @@
         <v>44671</v>
       </c>
       <c r="K34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L34" t="s">
         <v>13</v>
       </c>
       <c r="M34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -1871,8 +1865,8 @@
       <c r="D35" t="s">
         <v>14</v>
       </c>
-      <c r="E35" t="s">
-        <v>15</v>
+      <c r="E35">
+        <v>0</v>
       </c>
       <c r="F35">
         <v>1150</v>
@@ -1890,18 +1884,18 @@
         <v>44671</v>
       </c>
       <c r="K35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L35" t="s">
         <v>13</v>
       </c>
       <c r="M35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -1912,8 +1906,8 @@
       <c r="D36" t="s">
         <v>14</v>
       </c>
-      <c r="E36" t="s">
-        <v>15</v>
+      <c r="E36">
+        <v>0</v>
       </c>
       <c r="F36">
         <v>1109</v>
@@ -1931,18 +1925,18 @@
         <v>44671</v>
       </c>
       <c r="K36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L36" t="s">
         <v>13</v>
       </c>
       <c r="M36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B37">
         <v>3</v>
@@ -1953,8 +1947,8 @@
       <c r="D37" t="s">
         <v>14</v>
       </c>
-      <c r="E37" t="s">
-        <v>15</v>
+      <c r="E37">
+        <v>0</v>
       </c>
       <c r="F37">
         <v>1117</v>
@@ -1972,18 +1966,18 @@
         <v>44671</v>
       </c>
       <c r="K37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L37" t="s">
         <v>13</v>
       </c>
       <c r="M37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -1994,8 +1988,8 @@
       <c r="D38" t="s">
         <v>14</v>
       </c>
-      <c r="E38" t="s">
-        <v>15</v>
+      <c r="E38">
+        <v>0</v>
       </c>
       <c r="F38">
         <v>702</v>
@@ -2013,18 +2007,18 @@
         <v>44671</v>
       </c>
       <c r="K38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L38" t="s">
         <v>13</v>
       </c>
       <c r="M38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -2035,8 +2029,8 @@
       <c r="D39" t="s">
         <v>14</v>
       </c>
-      <c r="E39" t="s">
-        <v>15</v>
+      <c r="E39">
+        <v>0</v>
       </c>
       <c r="F39">
         <v>635</v>
@@ -2054,18 +2048,18 @@
         <v>44671</v>
       </c>
       <c r="K39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L39" t="s">
         <v>13</v>
       </c>
       <c r="M39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B40">
         <v>3</v>
@@ -2076,8 +2070,8 @@
       <c r="D40" t="s">
         <v>14</v>
       </c>
-      <c r="E40" t="s">
-        <v>15</v>
+      <c r="E40">
+        <v>0</v>
       </c>
       <c r="F40">
         <v>694</v>
@@ -2095,18 +2089,18 @@
         <v>44671</v>
       </c>
       <c r="K40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L40" t="s">
         <v>13</v>
       </c>
       <c r="M40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -2115,7 +2109,7 @@
         <v>9.3299999999999994E-2</v>
       </c>
       <c r="D41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E41">
         <v>48</v>
@@ -2136,18 +2130,18 @@
         <v>44671</v>
       </c>
       <c r="K41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L41" t="s">
         <v>13</v>
       </c>
       <c r="M41" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B42">
         <v>2</v>
@@ -2156,7 +2150,7 @@
         <v>9.3299999999999994E-2</v>
       </c>
       <c r="D42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E42">
         <v>48</v>
@@ -2177,18 +2171,18 @@
         <v>44671</v>
       </c>
       <c r="K42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L42" t="s">
         <v>13</v>
       </c>
       <c r="M42" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B43">
         <v>3</v>
@@ -2197,7 +2191,7 @@
         <v>9.3299999999999994E-2</v>
       </c>
       <c r="D43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E43">
         <v>48</v>
@@ -2218,18 +2212,18 @@
         <v>44671</v>
       </c>
       <c r="K43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L43" t="s">
         <v>13</v>
       </c>
       <c r="M43" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -2238,7 +2232,7 @@
         <v>0.158</v>
       </c>
       <c r="D44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E44">
         <v>48</v>
@@ -2259,18 +2253,18 @@
         <v>44585</v>
       </c>
       <c r="K44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L44" t="s">
         <v>13</v>
       </c>
       <c r="M44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B45">
         <v>2</v>
@@ -2279,7 +2273,7 @@
         <v>0.158</v>
       </c>
       <c r="D45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E45">
         <v>48</v>
@@ -2300,18 +2294,18 @@
         <v>44585</v>
       </c>
       <c r="K45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L45" t="s">
         <v>13</v>
       </c>
       <c r="M45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B46">
         <v>3</v>
@@ -2320,7 +2314,7 @@
         <v>0.158</v>
       </c>
       <c r="D46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E46">
         <v>48</v>
@@ -2341,18 +2335,18 @@
         <v>44585</v>
       </c>
       <c r="K46" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L46" t="s">
         <v>13</v>
       </c>
       <c r="M46" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -2361,7 +2355,7 @@
         <v>0.1142</v>
       </c>
       <c r="D47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E47">
         <v>48</v>
@@ -2382,18 +2376,18 @@
         <v>44585</v>
       </c>
       <c r="K47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L47" t="s">
         <v>13</v>
       </c>
       <c r="M47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B48">
         <v>2</v>
@@ -2402,7 +2396,7 @@
         <v>0.1142</v>
       </c>
       <c r="D48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E48">
         <v>48</v>
@@ -2423,18 +2417,18 @@
         <v>44585</v>
       </c>
       <c r="K48" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L48" t="s">
         <v>13</v>
       </c>
       <c r="M48" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B49">
         <v>3</v>
@@ -2443,7 +2437,7 @@
         <v>0.1142</v>
       </c>
       <c r="D49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E49">
         <v>48</v>
@@ -2464,18 +2458,18 @@
         <v>44585</v>
       </c>
       <c r="K49" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L49" t="s">
         <v>13</v>
       </c>
       <c r="M49" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -2484,7 +2478,7 @@
         <v>0.193</v>
       </c>
       <c r="D50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E50">
         <v>48</v>
@@ -2505,18 +2499,18 @@
         <v>44585</v>
       </c>
       <c r="K50" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L50" t="s">
         <v>13</v>
       </c>
       <c r="M50" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B51">
         <v>2</v>
@@ -2525,7 +2519,7 @@
         <v>0.193</v>
       </c>
       <c r="D51" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E51">
         <v>48</v>
@@ -2546,18 +2540,18 @@
         <v>44585</v>
       </c>
       <c r="K51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L51" t="s">
         <v>13</v>
       </c>
       <c r="M51" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B52">
         <v>3</v>
@@ -2566,7 +2560,7 @@
         <v>0.193</v>
       </c>
       <c r="D52" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E52">
         <v>48</v>
@@ -2587,18 +2581,18 @@
         <v>44585</v>
       </c>
       <c r="K52" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L52" t="s">
         <v>13</v>
       </c>
       <c r="M52" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -2607,7 +2601,7 @@
         <v>0.1381</v>
       </c>
       <c r="D53" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E53">
         <v>48</v>
@@ -2628,18 +2622,18 @@
         <v>44585</v>
       </c>
       <c r="K53" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L53" t="s">
         <v>13</v>
       </c>
       <c r="M53" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B54">
         <v>2</v>
@@ -2648,7 +2642,7 @@
         <v>0.1381</v>
       </c>
       <c r="D54" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E54">
         <v>48</v>
@@ -2669,18 +2663,18 @@
         <v>44585</v>
       </c>
       <c r="K54" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L54" t="s">
         <v>13</v>
       </c>
       <c r="M54" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B55">
         <v>3</v>
@@ -2689,7 +2683,7 @@
         <v>0.1381</v>
       </c>
       <c r="D55" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E55">
         <v>48</v>
@@ -2710,18 +2704,18 @@
         <v>44585</v>
       </c>
       <c r="K55" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L55" t="s">
         <v>13</v>
       </c>
       <c r="M55" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -2730,7 +2724,7 @@
         <v>9.4E-2</v>
       </c>
       <c r="D56" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E56">
         <v>48</v>
@@ -2751,18 +2745,18 @@
         <v>44585</v>
       </c>
       <c r="K56" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L56" t="s">
         <v>13</v>
       </c>
       <c r="M56" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B57">
         <v>2</v>
@@ -2771,7 +2765,7 @@
         <v>9.4E-2</v>
       </c>
       <c r="D57" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E57">
         <v>48</v>
@@ -2792,18 +2786,18 @@
         <v>44585</v>
       </c>
       <c r="K57" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L57" t="s">
         <v>13</v>
       </c>
       <c r="M57" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B58">
         <v>3</v>
@@ -2812,7 +2806,7 @@
         <v>9.4E-2</v>
       </c>
       <c r="D58" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E58">
         <v>48</v>
@@ -2833,18 +2827,18 @@
         <v>44585</v>
       </c>
       <c r="K58" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L58" t="s">
         <v>13</v>
       </c>
       <c r="M58" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -2853,7 +2847,7 @@
         <v>0.16900000000000001</v>
       </c>
       <c r="D59" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E59">
         <v>48</v>
@@ -2874,18 +2868,18 @@
         <v>44585</v>
       </c>
       <c r="K59" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L59" t="s">
         <v>13</v>
       </c>
       <c r="M59" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B60">
         <v>2</v>
@@ -2894,7 +2888,7 @@
         <v>0.16900000000000001</v>
       </c>
       <c r="D60" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E60">
         <v>48</v>
@@ -2915,18 +2909,18 @@
         <v>44585</v>
       </c>
       <c r="K60" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L60" t="s">
         <v>13</v>
       </c>
       <c r="M60" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B61">
         <v>3</v>
@@ -2935,7 +2929,7 @@
         <v>0.16900000000000001</v>
       </c>
       <c r="D61" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E61">
         <v>48</v>
@@ -2956,18 +2950,18 @@
         <v>44585</v>
       </c>
       <c r="K61" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L61" t="s">
         <v>13</v>
       </c>
       <c r="M61" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -2976,7 +2970,7 @@
         <v>0.161</v>
       </c>
       <c r="D62" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E62">
         <v>48</v>
@@ -2997,18 +2991,18 @@
         <v>44585</v>
       </c>
       <c r="K62" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L62" t="s">
         <v>13</v>
       </c>
       <c r="M62" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B63">
         <v>2</v>
@@ -3017,7 +3011,7 @@
         <v>0.161</v>
       </c>
       <c r="D63" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E63">
         <v>48</v>
@@ -3038,18 +3032,18 @@
         <v>44585</v>
       </c>
       <c r="K63" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L63" t="s">
         <v>13</v>
       </c>
       <c r="M63" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B64">
         <v>3</v>
@@ -3058,7 +3052,7 @@
         <v>0.161</v>
       </c>
       <c r="D64" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E64">
         <v>48</v>
@@ -3079,18 +3073,18 @@
         <v>44585</v>
       </c>
       <c r="K64" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L64" t="s">
         <v>13</v>
       </c>
       <c r="M64" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -3099,7 +3093,7 @@
         <v>0.12520000000000001</v>
       </c>
       <c r="D65" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E65">
         <v>48</v>
@@ -3120,18 +3114,18 @@
         <v>44585</v>
       </c>
       <c r="K65" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L65" t="s">
         <v>13</v>
       </c>
       <c r="M65" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B66">
         <v>2</v>
@@ -3140,7 +3134,7 @@
         <v>0.12520000000000001</v>
       </c>
       <c r="D66" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E66">
         <v>48</v>
@@ -3161,18 +3155,18 @@
         <v>44585</v>
       </c>
       <c r="K66" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L66" t="s">
         <v>13</v>
       </c>
       <c r="M66" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B67">
         <v>3</v>
@@ -3181,7 +3175,7 @@
         <v>0.12520000000000001</v>
       </c>
       <c r="D67" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E67">
         <v>48</v>
@@ -3202,18 +3196,18 @@
         <v>44585</v>
       </c>
       <c r="K67" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L67" t="s">
         <v>13</v>
       </c>
       <c r="M67" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -3222,7 +3216,7 @@
         <v>0.1404</v>
       </c>
       <c r="D68" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E68">
         <v>48</v>
@@ -3243,18 +3237,18 @@
         <v>44585</v>
       </c>
       <c r="K68" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L68" t="s">
         <v>13</v>
       </c>
       <c r="M68" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B69">
         <v>2</v>
@@ -3263,7 +3257,7 @@
         <v>0.1404</v>
       </c>
       <c r="D69" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E69">
         <v>48</v>
@@ -3284,18 +3278,18 @@
         <v>44585</v>
       </c>
       <c r="K69" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L69" t="s">
         <v>13</v>
       </c>
       <c r="M69" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B70">
         <v>3</v>
@@ -3304,7 +3298,7 @@
         <v>0.1404</v>
       </c>
       <c r="D70" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E70">
         <v>48</v>
@@ -3325,18 +3319,18 @@
         <v>44585</v>
       </c>
       <c r="K70" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L70" t="s">
         <v>13</v>
       </c>
       <c r="M70" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -3345,7 +3339,7 @@
         <v>0.1386</v>
       </c>
       <c r="D71" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E71">
         <v>48</v>
@@ -3366,18 +3360,18 @@
         <v>44585</v>
       </c>
       <c r="K71" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L71" t="s">
         <v>13</v>
       </c>
       <c r="M71" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B72">
         <v>2</v>
@@ -3386,7 +3380,7 @@
         <v>0.1386</v>
       </c>
       <c r="D72" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E72">
         <v>48</v>
@@ -3407,18 +3401,18 @@
         <v>44585</v>
       </c>
       <c r="K72" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L72" t="s">
         <v>13</v>
       </c>
       <c r="M72" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B73">
         <v>3</v>
@@ -3427,7 +3421,7 @@
         <v>0.1386</v>
       </c>
       <c r="D73" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E73">
         <v>48</v>
@@ -3448,18 +3442,18 @@
         <v>44585</v>
       </c>
       <c r="K73" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L73" t="s">
         <v>13</v>
       </c>
       <c r="M73" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -3468,7 +3462,7 @@
         <v>0.104</v>
       </c>
       <c r="D74" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E74">
         <v>48</v>
@@ -3489,18 +3483,18 @@
         <v>44585</v>
       </c>
       <c r="K74" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L74" t="s">
         <v>13</v>
       </c>
       <c r="M74" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B75">
         <v>2</v>
@@ -3509,7 +3503,7 @@
         <v>0.104</v>
       </c>
       <c r="D75" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E75">
         <v>48</v>
@@ -3530,18 +3524,18 @@
         <v>44585</v>
       </c>
       <c r="K75" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L75" t="s">
         <v>13</v>
       </c>
       <c r="M75" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B76">
         <v>3</v>
@@ -3550,7 +3544,7 @@
         <v>0.104</v>
       </c>
       <c r="D76" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E76">
         <v>48</v>
@@ -3571,18 +3565,18 @@
         <v>44585</v>
       </c>
       <c r="K76" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L76" t="s">
         <v>13</v>
       </c>
       <c r="M76" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -3591,10 +3585,10 @@
         <v>0.14560000000000001</v>
       </c>
       <c r="D77" t="s">
-        <v>22</v>
-      </c>
-      <c r="E77" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
       </c>
       <c r="F77">
         <v>1065</v>
@@ -3612,18 +3606,18 @@
         <v>44585</v>
       </c>
       <c r="K77" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L77" t="s">
         <v>13</v>
       </c>
       <c r="M77" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B78">
         <v>2</v>
@@ -3632,10 +3626,10 @@
         <v>0.14560000000000001</v>
       </c>
       <c r="D78" t="s">
-        <v>22</v>
-      </c>
-      <c r="E78" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
       </c>
       <c r="F78">
         <v>1025</v>
@@ -3653,18 +3647,18 @@
         <v>44585</v>
       </c>
       <c r="K78" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L78" t="s">
         <v>13</v>
       </c>
       <c r="M78" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B79">
         <v>3</v>
@@ -3673,10 +3667,10 @@
         <v>0.14560000000000001</v>
       </c>
       <c r="D79" t="s">
-        <v>22</v>
-      </c>
-      <c r="E79" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
       </c>
       <c r="F79">
         <v>1062</v>
@@ -3694,18 +3688,18 @@
         <v>44585</v>
       </c>
       <c r="K79" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L79" t="s">
         <v>13</v>
       </c>
       <c r="M79" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -3714,7 +3708,7 @@
         <v>0.15720000000000001</v>
       </c>
       <c r="D80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E80">
         <v>48</v>
@@ -3735,18 +3729,18 @@
         <v>44585</v>
       </c>
       <c r="K80" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L80" t="s">
         <v>13</v>
       </c>
       <c r="M80" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B81">
         <v>2</v>
@@ -3755,7 +3749,7 @@
         <v>0.15720000000000001</v>
       </c>
       <c r="D81" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E81">
         <v>48</v>
@@ -3776,18 +3770,18 @@
         <v>44585</v>
       </c>
       <c r="K81" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L81" t="s">
         <v>13</v>
       </c>
       <c r="M81" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B82">
         <v>3</v>
@@ -3796,7 +3790,7 @@
         <v>0.15720000000000001</v>
       </c>
       <c r="D82" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E82">
         <v>48</v>
@@ -3817,18 +3811,18 @@
         <v>44585</v>
       </c>
       <c r="K82" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L82" t="s">
         <v>13</v>
       </c>
       <c r="M82" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -3837,10 +3831,10 @@
         <v>0.1197</v>
       </c>
       <c r="D83" t="s">
-        <v>22</v>
-      </c>
-      <c r="E83" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
       </c>
       <c r="F83">
         <v>1367</v>
@@ -3858,18 +3852,18 @@
         <v>44585</v>
       </c>
       <c r="K83" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L83" t="s">
         <v>13</v>
       </c>
       <c r="M83" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B84">
         <v>2</v>
@@ -3878,10 +3872,10 @@
         <v>0.1197</v>
       </c>
       <c r="D84" t="s">
-        <v>22</v>
-      </c>
-      <c r="E84" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
       </c>
       <c r="F84">
         <v>1394</v>
@@ -3899,18 +3893,18 @@
         <v>44585</v>
       </c>
       <c r="K84" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L84" t="s">
         <v>13</v>
       </c>
       <c r="M84" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B85">
         <v>3</v>
@@ -3919,10 +3913,10 @@
         <v>0.1197</v>
       </c>
       <c r="D85" t="s">
-        <v>22</v>
-      </c>
-      <c r="E85" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
       </c>
       <c r="F85">
         <v>1340</v>
@@ -3940,18 +3934,18 @@
         <v>44585</v>
       </c>
       <c r="K85" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L85" t="s">
         <v>13</v>
       </c>
       <c r="M85" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -3960,10 +3954,10 @@
         <v>0.1055</v>
       </c>
       <c r="D86" t="s">
-        <v>22</v>
-      </c>
-      <c r="E86" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
       </c>
       <c r="F86">
         <v>900</v>
@@ -3981,18 +3975,18 @@
         <v>44585</v>
       </c>
       <c r="K86" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L86" t="s">
         <v>13</v>
       </c>
       <c r="M86" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B87">
         <v>2</v>
@@ -4001,10 +3995,10 @@
         <v>0.1055</v>
       </c>
       <c r="D87" t="s">
-        <v>22</v>
-      </c>
-      <c r="E87" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
       </c>
       <c r="F87">
         <v>891</v>
@@ -4022,18 +4016,18 @@
         <v>44585</v>
       </c>
       <c r="K87" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L87" t="s">
         <v>13</v>
       </c>
       <c r="M87" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B88">
         <v>3</v>
@@ -4042,10 +4036,10 @@
         <v>0.1055</v>
       </c>
       <c r="D88" t="s">
-        <v>22</v>
-      </c>
-      <c r="E88" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
       </c>
       <c r="F88">
         <v>1067</v>
@@ -4063,18 +4057,18 @@
         <v>44585</v>
       </c>
       <c r="K88" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L88" t="s">
         <v>13</v>
       </c>
       <c r="M88" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -4083,10 +4077,10 @@
         <v>0.1178</v>
       </c>
       <c r="D89" t="s">
-        <v>22</v>
-      </c>
-      <c r="E89" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
       </c>
       <c r="F89">
         <v>1272</v>
@@ -4104,18 +4098,18 @@
         <v>44585</v>
       </c>
       <c r="K89" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L89" t="s">
         <v>13</v>
       </c>
       <c r="M89" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B90">
         <v>2</v>
@@ -4124,10 +4118,10 @@
         <v>0.1178</v>
       </c>
       <c r="D90" t="s">
-        <v>22</v>
-      </c>
-      <c r="E90" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
       </c>
       <c r="F90">
         <v>1262</v>
@@ -4145,18 +4139,18 @@
         <v>44585</v>
       </c>
       <c r="K90" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L90" t="s">
         <v>13</v>
       </c>
       <c r="M90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B91">
         <v>3</v>
@@ -4165,10 +4159,10 @@
         <v>0.1178</v>
       </c>
       <c r="D91" t="s">
-        <v>22</v>
-      </c>
-      <c r="E91" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
       </c>
       <c r="F91">
         <v>1161</v>
@@ -4186,18 +4180,18 @@
         <v>44585</v>
       </c>
       <c r="K91" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L91" t="s">
         <v>13</v>
       </c>
       <c r="M91" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -4206,7 +4200,7 @@
         <v>0.12239999999999999</v>
       </c>
       <c r="D92" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E92">
         <v>48</v>
@@ -4227,18 +4221,18 @@
         <v>44585</v>
       </c>
       <c r="K92" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L92" t="s">
         <v>13</v>
       </c>
       <c r="M92" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B93">
         <v>2</v>
@@ -4247,7 +4241,7 @@
         <v>0.12239999999999999</v>
       </c>
       <c r="D93" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E93">
         <v>48</v>
@@ -4268,18 +4262,18 @@
         <v>44585</v>
       </c>
       <c r="K93" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L93" t="s">
         <v>13</v>
       </c>
       <c r="M93" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B94">
         <v>3</v>
@@ -4288,7 +4282,7 @@
         <v>0.12239999999999999</v>
       </c>
       <c r="D94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E94">
         <v>48</v>
@@ -4309,13 +4303,13 @@
         <v>44585</v>
       </c>
       <c r="K94" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L94" t="s">
         <v>13</v>
       </c>
       <c r="M94" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.2">
